--- a/rules/compiled_results.xlsx
+++ b/rules/compiled_results.xlsx
@@ -10937,8 +10937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15511,8 +15511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
